--- a/data/MATE.xlsx
+++ b/data/MATE.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MATE 110.</t>
+          <t>MATE 110.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -432,10 +477,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MATE 120.</t>
+          <t>MATE 120.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -476,12 +551,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHEM 111 or CHEM 124 or CHEM 127. Recommended: Concurrent enrollment in MATE 215.</t>
+          <t>CHEM 111 or CHEM 124 or CHEM 127.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Concurrent enrollment in MATE 215.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -503,7 +593,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F,W,SP,SUPrerequisite or concurrent: MATE 210.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>F,W,SP,SUPrerequisite or MATE 210.</t>
         </is>
       </c>
     </row>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MATE 210.</t>
+          <t>MATE 210.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -542,12 +662,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MATE 215. Concurrent: MATE 232.</t>
+          <t>MATE 215.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MATE 232.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MATE 210.</t>
+          <t>MATE 210.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -586,10 +736,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MATE 225.</t>
+          <t>MATE 225.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CHEM 125, PHYS 133, MATH 143, MATE 210 and MATE 215.</t>
+          <t>CHEM 125, PHYS 133, MATH 143, MATE 210 and MATE 215.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -652,12 +847,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MATE 210, MATE 340, STAT 312. Concurrent: MATE 350.</t>
+          <t>MATE 210, MATE 340, STAT 312.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MATE 350.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MATE 360.</t>
+          <t>MATE 360.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PHYS 132 and MATH 141.</t>
+          <t>PHYS 132 and MATH 141.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MATH 141 and ME 211.</t>
+          <t>MATH 141 and ME 211.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CHEM 124 and PHYS 133.</t>
+          <t>CHEM 124 and PHYS 133.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MATE 210 and PHYS 133.</t>
+          <t>MATE 210 and PHYS 133.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -784,12 +1069,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MATE 360. Corequisite: CE 204. Concurrent: MATE 310.</t>
+          <t>MATE 360.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>CE 204.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MATE 310.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP  </t>
         </is>
       </c>
     </row>
@@ -811,6 +1111,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MATE 232 and MATE 235.</t>
+          <t>MATE 232 and MATE 235.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MATE 360 and MATE 380.</t>
+          <t>MATE 360 and MATE 380.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -872,10 +1217,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CHEM 125, PHYS 133, MATH 143, MATE 210 and MATE 215; Materials Engineering students only.</t>
+          <t>CHEM 125, PHYS 133, MATH 143, MATE 210 and MATE 215; Materials Engineering students only.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MATE 210 and MATE 215.</t>
+          <t>MATE 210 and MATE 215.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -938,12 +1328,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MATE 210. Recommended: MATE 401.</t>
+          <t>MATE 210.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MATE 401.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CSC 231, ME 211, MATE 280.</t>
+          <t>CSC 231, ME 211, MATE 280.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CHEM 125, PHYS 133 and MATE 210.</t>
+          <t>CHEM 125, PHYS 133 and MATE 210.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MATE 310 or CHEM 444.</t>
+          <t>MATE 310 or CHEM 444.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MATE 210.</t>
+          <t>MATE 210.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1048,10 +1513,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CHEM 125 or CHEM 128, MATE 210, MATE 215.</t>
+          <t>CHEM 125 or CHEM 128, MATE 210, MATE 215.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BMED 212 or MATE 210.</t>
+          <t>BMED 212 or MATE 210.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1097,7 +1592,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>WCorequisite: BMED 434/EE 423/MATE 430.</t>
+          <t>BMED 434/EE 423/MATE 430.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MATE 210.</t>
+          <t>MATE 210.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1136,12 +1661,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MATE 210. Corequisite: MATE 440.</t>
+          <t>MATE 210.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MATE 440.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CHEM 125 or CHEM 128; CHEM 351, MATE 380, or ME 302.</t>
+          <t>CHEM 125 or CHEM 128; CHEM 351, MATE 380, or ME 302.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MATE 210, MATE 215, MATE 350; and Senior standing.</t>
+          <t>MATE 210, MATE 215, MATE 350; and Senior standing.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MATE 210.</t>
+          <t>MATE 210.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1224,12 +1809,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EE 112 or EE 113 or EE 201. Recommended: MATE 210.</t>
+          <t>EE 112 or EE 113 or EE 201.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>MATE 210.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MATE 350.</t>
+          <t>MATE 350.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MATE 360.</t>
+          <t>MATE 360.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1295,6 +1925,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1317,6 +1962,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MATE 350.</t>
+          <t>MATE 350.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>IME 144; senior standing; and Materials Engineering major.</t>
+          <t>IME 144; senior standing; and Materials Engineering major.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MATE 482.</t>
+          <t>MATE 482.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1400,10 +2105,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MATE 483.</t>
+          <t>MATE 483.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MATE 210.</t>
+          <t>MATE 210.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1444,10 +2179,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MATE 210.</t>
+          <t>MATE 210.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1471,6 +2221,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1493,6 +2258,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1510,10 +2290,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BIO 161, or BIO 213 and BMED/BRAE 213; MATE 210 and graduate standing or consent of instructor.</t>
+          <t>BIO 161, or BIO 213 and BMED/BRAE 213; MATE 210 and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1537,6 +2332,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1559,6 +2369,21 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1581,6 +2406,21 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1602,6 +2442,21 @@
         </is>
       </c>
       <c r="D57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
